--- a/data/trans_orig/P44AS4-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P44AS4-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3D3DFD8-396B-49D9-8A1F-0E86F13AC39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB3F7535-95A6-450A-8479-5E6A275D1B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4AB81ADD-912C-4CC5-B57D-89F6BF37F4F6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B27E64B4-FC67-4364-9E5E-AFF64E6F2971}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -518,7 +518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88315E3E-91E4-4BC8-9235-C2AE86FF87F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D167D24C-5DFF-484C-B7CA-DB4EF721AA48}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1227,7 +1227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1E4655-E95F-4DDC-8707-70910429AA15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C746CC-B0C0-4EF9-A89C-6E488323DB80}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1928,7 +1928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06354149-A442-48D0-8B17-2476DB6BCE8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66264267-5599-46E6-86B7-D979027A62D7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P44AS4-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P44AS4-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB3F7535-95A6-450A-8479-5E6A275D1B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFC1875E-09E1-4384-B25A-B6297127585C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B27E64B4-FC67-4364-9E5E-AFF64E6F2971}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8D14CB2B-68EB-467B-B647-45AD0575848B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otras</t>
@@ -76,13 +76,13 @@
     <t>—%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -103,7 +103,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 4 en 2015 (Tasa respuesta: 0,02%)</t>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 4 en 2016 (Tasa respuesta: 0,02%)</t>
   </si>
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 4 en 2023 (Tasa respuesta: 0,01%)</t>
@@ -518,7 +518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D167D24C-5DFF-484C-B7CA-DB4EF721AA48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D682299F-AC2E-4F48-AF46-6FAB9781D88A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1227,7 +1227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C746CC-B0C0-4EF9-A89C-6E488323DB80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8260A5AE-F013-44E0-AB8C-6AEEF5CF1029}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1928,7 +1928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66264267-5599-46E6-86B7-D979027A62D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2F8A27-492B-494E-A025-273EF994FB9E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
